--- a/machines.xlsx
+++ b/machines.xlsx
@@ -1,24 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <calcPr/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Machine_ID</t>
+  </si>
+  <si>
+    <t>Machine_Type</t>
+  </si>
+  <si>
+    <t>Lab_ID</t>
+  </si>
+  <si>
+    <t>CFX384</t>
+  </si>
+  <si>
+    <t>Thermocycler</t>
+  </si>
+  <si>
+    <t>CRMC3345</t>
+  </si>
+  <si>
+    <t>CFX96</t>
+  </si>
+  <si>
+    <t>CFX104</t>
+  </si>
+  <si>
+    <t>CRMC1452</t>
+  </si>
+  <si>
+    <t>CFX1099</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1">
     <font>
-      <sz val="12"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="12.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -40,20 +75,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -99,13 +139,13 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -128,19 +168,18 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -163,7 +202,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -198,16 +236,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -329,9 +371,215 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
   <a:objectDefaults>
     <a:spDef>
-      <a:spPr/>
+      <a:spPr bwMode="auto"/>
       <a:bodyPr/>
       <a:lstStyle/>
       <a:style>
@@ -350,7 +598,7 @@
       </a:style>
     </a:spDef>
     <a:lnDef>
-      <a:spPr/>
+      <a:spPr bwMode="auto"/>
       <a:bodyPr/>
       <a:lstStyle/>
       <a:style>
@@ -369,53 +617,82 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="17.25390625"/>
+    <col customWidth="1" min="2" max="2" width="18.25390625"/>
+    <col customWidth="1" min="3" max="3" width="11.50390625"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <v>Machine_ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Machine_Type</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Lab_ID</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>CFX384</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Thermocycler</v>
-      </c>
-      <c r="C2" t="str">
-        <v>CRMC3345</v>
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>CFX96</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Thermocycler</v>
-      </c>
-      <c r="C3" t="str">
-        <v>CRMC3345</v>
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
-  </ignoredErrors>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <headerFooter/>
 </worksheet>
 </file>